--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200378.5908478106</v>
+        <v>196196.8802756723</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6710378.753666296</v>
+        <v>6710378.753666299</v>
       </c>
     </row>
     <row r="9">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.8286311513001</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>108.5404125459105</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796771</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>119.0839105424607</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>119.0839105424607</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1223,10 +1223,10 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>2.551835605976153</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>50.34643644777008</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.32747982963525</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616408</v>
+        <v>13.56162857616404</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="X10" t="n">
-        <v>119.0839105424607</v>
+        <v>91.32747982963578</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>152.3007303624853</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>273.2040023654334</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>73.4609303272113</v>
+        <v>11.45461388085721</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>196.2048876063469</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>228.6996864420309</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>141.05024842887</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>55.9668410237007</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>105.5188043066317</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1855,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>84.84259105082161</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>11.892974579398</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2016,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>21.78869975404412</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>74.29823967299421</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>202.9938507929467</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.70161077419226</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2247,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>90.68240064486314</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0.362575901360808</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>204.4687849777638</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2481,13 +2481,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>18.84333618152623</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>110.2762206011261</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>388.2092207854904</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>240.7426382079654</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>74.42811009354851</v>
       </c>
       <c r="H28" t="n">
-        <v>35.13097398123151</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>136.0829573912419</v>
       </c>
       <c r="V29" t="n">
-        <v>299.0414318982836</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,19 +2952,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144773</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>93.00664472099383</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>121.3841900088932</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
@@ -3012,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3040,13 +3040,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>321.9370827829817</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>77.69460209325949</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>112.0709828511843</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>49.34995949258546</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3277,10 +3277,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>107.0709848214564</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>116.6395830120781</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>26.70110018160128</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>86.38976318987949</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.6615473203993</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>3.008008304819972</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>122.4964215838119</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3678,10 +3678,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>76.79115248069726</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>47.89186548924878</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>1.141804350939364</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,16 +3900,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>31.66775530976515</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
@@ -3918,7 +3918,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>142.3440899462479</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>74.2982396729933</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3988,13 +3988,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
-        <v>149.6157531058527</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4197,13 +4197,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>152.3378838520204</v>
       </c>
       <c r="Y46" t="n">
-        <v>23.00363867449979</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.0595287564099</v>
+        <v>238.6963091058145</v>
       </c>
       <c r="C8" t="n">
-        <v>94.95745998023725</v>
+        <v>204.5942403296418</v>
       </c>
       <c r="D8" t="n">
-        <v>63.08807919508583</v>
+        <v>172.7248595444904</v>
       </c>
       <c r="E8" t="n">
-        <v>33.35373839378506</v>
+        <v>142.9905187431897</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396853</v>
+        <v>119.1634931928014</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396853</v>
+        <v>119.1634931928014</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396853</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585567</v>
+        <v>23.57954741585579</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558021</v>
+        <v>55.41632306558049</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318068</v>
+        <v>103.1313969318073</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183091</v>
+        <v>162.32616531831</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590925</v>
+        <v>228.1917507590937</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326574</v>
+        <v>295.1231102326589</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336415</v>
+        <v>358.3244950336432</v>
       </c>
       <c r="P8" t="n">
-        <v>412.265414745566</v>
+        <v>412.265414745568</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245002</v>
+        <v>452.7727990245024</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698426</v>
+        <v>476.335642169845</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698426</v>
+        <v>401.405083464827</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698426</v>
+        <v>401.405083464827</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698426</v>
+        <v>281.1183051391086</v>
       </c>
       <c r="V8" t="n">
-        <v>476.3356421698426</v>
+        <v>281.1183051391086</v>
       </c>
       <c r="W8" t="n">
-        <v>475.52059162128</v>
+        <v>280.303254590546</v>
       </c>
       <c r="X8" t="n">
-        <v>355.2338132955622</v>
+        <v>265.2011952102607</v>
       </c>
       <c r="Y8" t="n">
-        <v>234.9470349698443</v>
+        <v>260.9554755503182</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>473.7580304466344</v>
+        <v>305.1938775332476</v>
       </c>
       <c r="C9" t="n">
-        <v>367.3015692832766</v>
+        <v>198.7374163698899</v>
       </c>
       <c r="D9" t="n">
-        <v>272.2112804298299</v>
+        <v>103.6471275164432</v>
       </c>
       <c r="E9" t="n">
-        <v>178.0908657567836</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="F9" t="n">
-        <v>94.70702737294525</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396853</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396853</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114679</v>
+        <v>16.43678475114687</v>
       </c>
       <c r="J9" t="n">
-        <v>134.3298561881828</v>
+        <v>67.70899752367959</v>
       </c>
       <c r="K9" t="n">
-        <v>166.7385335674987</v>
+        <v>100.1176749029956</v>
       </c>
       <c r="L9" t="n">
-        <v>210.3159997831879</v>
+        <v>143.6951411186851</v>
       </c>
       <c r="M9" t="n">
-        <v>261.1688474406037</v>
+        <v>194.5479887761011</v>
       </c>
       <c r="N9" t="n">
-        <v>313.3676186581405</v>
+        <v>246.7467599936381</v>
       </c>
       <c r="O9" t="n">
-        <v>361.1192964644731</v>
+        <v>294.4984377999709</v>
       </c>
       <c r="P9" t="n">
-        <v>399.4442277663351</v>
+        <v>332.8233691018331</v>
       </c>
       <c r="Q9" t="n">
-        <v>425.0634293973101</v>
+        <v>358.4425707328083</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698426</v>
+        <v>476.335642169845</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698426</v>
+        <v>476.335642169845</v>
       </c>
       <c r="T9" t="n">
-        <v>476.3356421698426</v>
+        <v>476.335642169845</v>
       </c>
       <c r="U9" t="n">
-        <v>476.3356421698426</v>
+        <v>476.335642169845</v>
       </c>
       <c r="V9" t="n">
-        <v>473.7580304466344</v>
+        <v>356.0488638441265</v>
       </c>
       <c r="W9" t="n">
-        <v>473.7580304466344</v>
+        <v>356.0488638441265</v>
       </c>
       <c r="X9" t="n">
-        <v>473.7580304466344</v>
+        <v>356.0488638441265</v>
       </c>
       <c r="Y9" t="n">
-        <v>473.7580304466344</v>
+        <v>305.1938775332476</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396853</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396853</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396853</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396853</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396853</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396853</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396853</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396853</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="J10" t="n">
-        <v>108.0024003011149</v>
+        <v>21.42271513642516</v>
       </c>
       <c r="K10" t="n">
-        <v>225.8954717381509</v>
+        <v>58.40853171474986</v>
       </c>
       <c r="L10" t="n">
-        <v>262.1854494398043</v>
+        <v>176.3016031517865</v>
       </c>
       <c r="M10" t="n">
-        <v>288.5610142512593</v>
+        <v>202.6771679632416</v>
       </c>
       <c r="N10" t="n">
-        <v>314.3094270837839</v>
+        <v>320.5702394002782</v>
       </c>
       <c r="O10" t="n">
-        <v>338.0922538360023</v>
+        <v>344.3530661524967</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328066</v>
+        <v>462.2461375895333</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698426</v>
+        <v>476.335642169845</v>
       </c>
       <c r="R10" t="n">
-        <v>462.6370274464446</v>
+        <v>462.637027446447</v>
       </c>
       <c r="S10" t="n">
-        <v>462.6370274464446</v>
+        <v>462.637027446447</v>
       </c>
       <c r="T10" t="n">
-        <v>462.6370274464446</v>
+        <v>462.637027446447</v>
       </c>
       <c r="U10" t="n">
-        <v>342.3502491207267</v>
+        <v>462.637027446447</v>
       </c>
       <c r="V10" t="n">
-        <v>342.3502491207267</v>
+        <v>342.3502491207285</v>
       </c>
       <c r="W10" t="n">
-        <v>342.3502491207267</v>
+        <v>222.0634707950101</v>
       </c>
       <c r="X10" t="n">
-        <v>222.0634707950089</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="Y10" t="n">
-        <v>101.776692469291</v>
+        <v>129.8134911691153</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>639.1881459437994</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="C11" t="n">
-        <v>201.0456731272228</v>
+        <v>1186.612632672305</v>
       </c>
       <c r="D11" t="n">
-        <v>47.20655154895474</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
         <v>805.4408022867025</v>
@@ -5059,7 +5059,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>1889.485634438363</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V11" t="n">
-        <v>1889.485634438363</v>
+        <v>2043.897568909571</v>
       </c>
       <c r="W11" t="n">
-        <v>1484.630179849397</v>
+        <v>2043.897568909571</v>
       </c>
       <c r="X11" t="n">
-        <v>1065.487716428707</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="Y11" t="n">
-        <v>1065.487716428707</v>
+        <v>1624.755105488881</v>
       </c>
     </row>
     <row r="12">
@@ -5099,25 +5099,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.291841223631</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9462364092383</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.127311827553</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N13" t="n">
-        <v>1635.885026789087</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>2118.080353351143</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1831.124845221574</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W13" t="n">
-        <v>1756.921885295098</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X13" t="n">
-        <v>1511.53013062851</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.110459942618</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1152.268593475967</v>
+        <v>673.2607362976731</v>
       </c>
       <c r="C14" t="n">
-        <v>714.1261206593899</v>
+        <v>673.2607362976731</v>
       </c>
       <c r="D14" t="n">
-        <v>278.2163358338344</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E14" t="n">
-        <v>278.2163358338344</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F14" t="n">
-        <v>278.2163358338344</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W14" t="n">
-        <v>1997.710627381563</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X14" t="n">
-        <v>1578.568163960874</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y14" t="n">
-        <v>1578.568163960874</v>
+        <v>673.2607362976731</v>
       </c>
     </row>
     <row r="15">
@@ -5336,25 +5336,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>663.4738450083642</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="C16" t="n">
-        <v>663.4738450083642</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D16" t="n">
-        <v>663.4738450083642</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>520.9988465953642</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G16" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909396</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2303.795414797534</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2061.54819070094</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1783.161558749683</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1496.206050620114</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1224.179646206405</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942559</v>
+        <v>978.7878915398176</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083642</v>
+        <v>751.3682208539258</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1782.900983623584</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C17" t="n">
-        <v>1344.758510807007</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001355</v>
@@ -5521,10 +5521,10 @@
         <v>512.3249274228017</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
         <v>1463.013992431967</v>
@@ -5533,7 +5533,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W17" t="n">
-        <v>1889.485634438363</v>
+        <v>1763.319677733138</v>
       </c>
       <c r="X17" t="n">
-        <v>1889.485634438363</v>
+        <v>1763.319677733138</v>
       </c>
       <c r="Y17" t="n">
-        <v>1889.485634438363</v>
+        <v>1355.033554032792</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030332</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5636,10 +5636,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>713.9024503859703</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C19" t="n">
-        <v>713.9024503859703</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D19" t="n">
-        <v>548.024457587493</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E19" t="n">
-        <v>378.2664538382302</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F19" t="n">
-        <v>201.5593997999864</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092383</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.514407000715</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1650.558898871145</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
-        <v>1378.532494457437</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1133.140739790849</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y19" t="n">
-        <v>905.7210691049575</v>
+        <v>908.8655996749508</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1624.755105488881</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C20" t="n">
-        <v>1186.612632672305</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D20" t="n">
-        <v>750.7028478467491</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E20" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5770,7 +5770,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5785,19 +5785,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2033.041229189228</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V20" t="n">
-        <v>2033.041229189228</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W20" t="n">
-        <v>2033.041229189228</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X20" t="n">
-        <v>2033.041229189228</v>
+        <v>921.4750880558164</v>
       </c>
       <c r="Y20" t="n">
-        <v>1624.755105488881</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="21">
@@ -5810,31 +5810,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L21" t="n">
         <v>551.5786779960906</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.291841223631</v>
+        <v>717.0469809559636</v>
       </c>
       <c r="C22" t="n">
-        <v>919.7301297068562</v>
+        <v>544.4852694391885</v>
       </c>
       <c r="D22" t="n">
-        <v>753.852136908379</v>
+        <v>378.6072766407112</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>378.6072766407112</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>201.9002226024674</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>201.9002226024674</v>
       </c>
       <c r="H22" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L22" t="n">
-        <v>744.992999204955</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M22" t="n">
-        <v>875.5973915434845</v>
+        <v>550.4276429928788</v>
       </c>
       <c r="N22" t="n">
-        <v>1445.355106505019</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O22" t="n">
-        <v>1982.790237078561</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,7 +5937,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
         <v>1973.653814855378</v>
@@ -5946,16 +5946,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1695.267182904121</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1423.240778490413</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1177.849023823826</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y22" t="n">
-        <v>1177.849023823826</v>
+        <v>908.8655996749508</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1514.88554354214</v>
+        <v>1320.76150051161</v>
       </c>
       <c r="C23" t="n">
-        <v>1514.88554354214</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D23" t="n">
-        <v>1514.88554354214</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E23" t="n">
-        <v>1081.110798700435</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F23" t="n">
-        <v>653.243369109643</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>253.7406777891202</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="X23" t="n">
-        <v>1941.185114027048</v>
+        <v>1729.413862496159</v>
       </c>
       <c r="Y23" t="n">
-        <v>1941.185114027048</v>
+        <v>1321.127738795813</v>
       </c>
     </row>
     <row r="24">
@@ -6050,28 +6050,28 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L24" t="n">
         <v>551.5786779960906</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>471.655226289377</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C25" t="n">
-        <v>299.093514772602</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D25" t="n">
-        <v>280.0598418619694</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E25" t="n">
-        <v>110.3018381127067</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
         <v>192.6919004158277</v>
@@ -6153,13 +6153,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M25" t="n">
-        <v>1236.93553127931</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N25" t="n">
-        <v>1364.434443083199</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O25" t="n">
         <v>1657.620488527956</v>
@@ -6171,28 +6171,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T25" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W25" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X25" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y25" t="n">
-        <v>663.4738450083642</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1303.114292011252</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="C26" t="n">
-        <v>1303.114292011252</v>
+        <v>1559.568154564986</v>
       </c>
       <c r="D26" t="n">
-        <v>867.2045071856969</v>
+        <v>1123.65836973943</v>
       </c>
       <c r="E26" t="n">
-        <v>867.2045071856969</v>
+        <v>689.8836248977254</v>
       </c>
       <c r="F26" t="n">
-        <v>439.3370775949047</v>
+        <v>689.8836248977254</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>290.3809335772026</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I26" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867019</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
@@ -6250,28 +6250,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T26" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U26" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V26" t="n">
-        <v>2148.556325916849</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W26" t="n">
-        <v>2148.556325916849</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="X26" t="n">
-        <v>1729.41386249616</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="Y26" t="n">
-        <v>1729.41386249616</v>
+        <v>1997.710627381563</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.3166270668981</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>803.3877032987881</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6344,13 +6344,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>995.4336129072215</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C28" t="n">
-        <v>822.8719013904464</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9939085919691</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E28" t="n">
-        <v>487.2359048427064</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="F28" t="n">
-        <v>310.5288508044625</v>
+        <v>122.3864607343573</v>
       </c>
       <c r="G28" t="n">
-        <v>145.7876704169809</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H28" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>202.912315818696</v>
+        <v>393.4422361027634</v>
       </c>
       <c r="L28" t="n">
-        <v>326.783117436994</v>
+        <v>935.5229194890223</v>
       </c>
       <c r="M28" t="n">
-        <v>910.9641928553089</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N28" t="n">
-        <v>1480.721907816843</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O28" t="n">
-        <v>2018.157038390386</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P28" t="n">
-        <v>2118.926094568069</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T28" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V28" t="n">
-        <v>1686.698306725809</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W28" t="n">
-        <v>1414.6719023121</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X28" t="n">
-        <v>1414.6719023121</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y28" t="n">
-        <v>1187.252231626209</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>752.8378878305998</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="C29" t="n">
-        <v>752.8378878305998</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D29" t="n">
-        <v>316.9281030050443</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E29" t="n">
-        <v>316.9281030050443</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F29" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M29" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
         <v>2043.069798152528</v>
@@ -6487,28 +6487,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T29" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U29" t="n">
-        <v>1889.485634438363</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="V29" t="n">
-        <v>1587.423582015854</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="W29" t="n">
-        <v>1587.423582015854</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="X29" t="n">
-        <v>1587.423582015854</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="Y29" t="n">
-        <v>1179.137458315508</v>
+        <v>2182.403674944107</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P30" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q30" t="n">
         <v>1614.947661807679</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>522.1356590063599</v>
+        <v>863.3185618614019</v>
       </c>
       <c r="C31" t="n">
-        <v>522.1356590063599</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="D31" t="n">
-        <v>356.2576662078826</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E31" t="n">
-        <v>356.2576662078826</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F31" t="n">
-        <v>179.5506121696388</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
         <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>464.1452239003829</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092375</v>
+        <v>588.0160255186809</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827552</v>
+        <v>718.6204178572102</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789086</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P31" t="n">
         <v>2274.089213540313</v>
@@ -6645,28 +6645,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S31" t="n">
-        <v>2266.381471668955</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.134247572361</v>
+        <v>2093.290746013695</v>
       </c>
       <c r="U31" t="n">
-        <v>1745.747615621104</v>
+        <v>1814.904114062438</v>
       </c>
       <c r="V31" t="n">
-        <v>1458.792107491535</v>
+        <v>1527.948605932868</v>
       </c>
       <c r="W31" t="n">
-        <v>1186.765703077826</v>
+        <v>1527.948605932868</v>
       </c>
       <c r="X31" t="n">
-        <v>941.3739484112389</v>
+        <v>1282.556851266281</v>
       </c>
       <c r="Y31" t="n">
-        <v>713.9542777253471</v>
+        <v>1055.137180580389</v>
       </c>
     </row>
     <row r="32">
@@ -6676,58 +6676,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2108.089956131646</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="C32" t="n">
-        <v>1669.94748331507</v>
+        <v>1186.612632672305</v>
       </c>
       <c r="D32" t="n">
-        <v>1234.037698489514</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E32" t="n">
-        <v>800.2629536478094</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F32" t="n">
-        <v>372.3955240570171</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T32" t="n">
         <v>2108.089956131646</v>
@@ -6736,16 +6736,16 @@
         <v>2108.089956131646</v>
       </c>
       <c r="V32" t="n">
-        <v>2108.089956131646</v>
+        <v>2029.610560077848</v>
       </c>
       <c r="W32" t="n">
-        <v>2108.089956131646</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="X32" t="n">
-        <v>2108.089956131646</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="Y32" t="n">
-        <v>2108.089956131646</v>
+        <v>1624.755105488881</v>
       </c>
     </row>
     <row r="33">
@@ -6758,31 +6758,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L33" t="n">
         <v>551.5786779960906</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>807.9003835041292</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C34" t="n">
-        <v>635.3386719873541</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="D34" t="n">
-        <v>469.4606791888768</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E34" t="n">
-        <v>469.4606791888768</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F34" t="n">
-        <v>292.7536251506331</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G34" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>733.4227107706877</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M34" t="n">
-        <v>1317.603786189002</v>
+        <v>875.5973915434844</v>
       </c>
       <c r="N34" t="n">
-        <v>1887.361501150537</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O34" t="n">
-        <v>2005.127382498298</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2310.479133515832</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>2068.231909419238</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>1789.845277467981</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270317</v>
+        <v>1502.889769338411</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856609</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.320054190021</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041292</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1782.900983623584</v>
+        <v>1463.186063953455</v>
       </c>
       <c r="C35" t="n">
-        <v>1344.758510807007</v>
+        <v>1025.043591136878</v>
       </c>
       <c r="D35" t="n">
-        <v>908.8487259814518</v>
+        <v>589.1338063113226</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>155.3590614696178</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895474</v>
+        <v>155.3590614696178</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
         <v>2043.069798152528</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U35" t="n">
-        <v>2202.043447044273</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V35" t="n">
-        <v>2202.043447044273</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="W35" t="n">
-        <v>2202.043447044273</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="X35" t="n">
-        <v>1782.900983623584</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="Y35" t="n">
-        <v>1782.900983623584</v>
+        <v>1889.485634438362</v>
       </c>
     </row>
     <row r="36">
@@ -6995,31 +6995,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L36" t="n">
         <v>551.5786779960906</v>
@@ -7071,58 +7071,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.081764785142</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C37" t="n">
-        <v>443.520053268367</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="D37" t="n">
-        <v>443.520053268367</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E37" t="n">
-        <v>443.520053268367</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F37" t="n">
-        <v>266.8129992301232</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G37" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092383</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827553</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789087</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T37" t="n">
         <v>2118.080353351143</v>
@@ -7131,16 +7131,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1782.900983623584</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.758510807007</v>
+        <v>1347.796903034098</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>911.8871182085427</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>478.1123733668379</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895473</v>
+        <v>50.2449437760456</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
         <v>2043.069798152528</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V38" t="n">
-        <v>1997.710627381563</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W38" t="n">
-        <v>1997.710627381563</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="X38" t="n">
-        <v>1997.710627381563</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="Y38" t="n">
-        <v>1997.710627381563</v>
+        <v>1785.939375850675</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J39" t="n">
-        <v>858.9930882810423</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K39" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L39" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>621.5080762876948</v>
+        <v>1050.147607600722</v>
       </c>
       <c r="C40" t="n">
-        <v>621.5080762876948</v>
+        <v>877.5858960839465</v>
       </c>
       <c r="D40" t="n">
-        <v>621.5080762876948</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E40" t="n">
-        <v>451.7500725384321</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F40" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092375</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827552</v>
+        <v>897.93453696322</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789086</v>
+        <v>1467.692251924754</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>2081.940945496479</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774551</v>
+        <v>1794.985437366909</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1522.959032953201</v>
       </c>
       <c r="X40" t="n">
-        <v>890.893515694255</v>
+        <v>1277.567278286613</v>
       </c>
       <c r="Y40" t="n">
-        <v>813.326695006682</v>
+        <v>1050.147607600722</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>918.0444189444366</v>
+        <v>1634.49094569914</v>
       </c>
       <c r="C41" t="n">
-        <v>918.0444189444366</v>
+        <v>1634.49094569914</v>
       </c>
       <c r="D41" t="n">
-        <v>482.1346341188811</v>
+        <v>1198.581160873584</v>
       </c>
       <c r="E41" t="n">
-        <v>48.35988927717631</v>
+        <v>764.8064160318791</v>
       </c>
       <c r="F41" t="n">
-        <v>48.35988927717631</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>48.35988927717631</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
@@ -7414,7 +7414,7 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
         <v>805.440802286702</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U41" t="n">
-        <v>2108.089956131646</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V41" t="n">
-        <v>1745.473006065472</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="W41" t="n">
-        <v>1745.473006065472</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="X41" t="n">
-        <v>1326.330542644783</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="Y41" t="n">
-        <v>918.0444189444366</v>
+        <v>2060.790516184047</v>
       </c>
     </row>
     <row r="42">
@@ -7484,16 +7484,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L42" t="n">
         <v>551.5786779960906</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.0817647851416</v>
+        <v>573.2650719193497</v>
       </c>
       <c r="C43" t="n">
-        <v>584.0941331591162</v>
+        <v>573.2650719193497</v>
       </c>
       <c r="D43" t="n">
-        <v>584.0941331591162</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="E43" t="n">
-        <v>584.0941331591162</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F43" t="n">
         <v>407.3870791208724</v>
@@ -7566,55 +7566,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>326.783117436994</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M43" t="n">
-        <v>910.9641928553087</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N43" t="n">
-        <v>1480.721907816843</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O43" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.320054190021</v>
+        <v>992.5033613242285</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041287</v>
+        <v>765.0836906383367</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>1186.612632672305</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
         <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7663,37 +7663,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2209.200554108492</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2209.200554108492</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V44" t="n">
-        <v>2209.200554108492</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W44" t="n">
-        <v>2209.200554108492</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X44" t="n">
-        <v>2209.200554108492</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.200554108492</v>
+        <v>1699.803832431299</v>
       </c>
     </row>
     <row r="45">
@@ -7706,37 +7706,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.291841223631</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G46" t="n">
         <v>242.6458987333908</v>
@@ -7803,7 +7803,7 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
@@ -7812,46 +7812,46 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M46" t="n">
-        <v>1236.93553127931</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N46" t="n">
-        <v>1364.434443083199</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W46" t="n">
-        <v>1552.738213270317</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1307.346458603729</v>
+        <v>982.4086200052664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.110459942618</v>
+        <v>754.9889493193747</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>99.93061208465438</v>
+        <v>32.63681545384284</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.20322876385154</v>
+        <v>106.4970253946637</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.33766198190325</v>
+        <v>17.61316212461897</v>
       </c>
       <c r="L10" t="n">
-        <v>11.38814337090528</v>
+        <v>93.81551078038319</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>93.07541273183023</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>98.52803488912343</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340652</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>70.05088382580971</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520578</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464602</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371571</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>6.525705103702649</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9576,10 +9576,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>192.4544649334027</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9801,16 +9801,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>141.4680432173438</v>
       </c>
       <c r="O25" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>105.0002374943208</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>156.730423204287</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>263.8716243249363</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042864</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>45.75904403825082</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>192.4544649334016</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10749,22 +10749,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371571</v>
+        <v>446.4711057025428</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,10 +10986,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042864</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371569</v>
+        <v>22.56277315124817</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11223,22 +11223,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>410.7470639734277</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11460,16 +11460,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>177.1920849464602</v>
+        <v>141.4680432173438</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>279.2499566148146</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -23275,7 +23275,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>85.78677820007829</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>195.8452100423601</v>
+        <v>257.8515264887142</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>235.345799370953</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>166.8079779652867</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>27.01017528290015</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>87.01543208710711</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>316.517770473427</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>315.9643089922554</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>178.0074579523992</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>141.3050688295626</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,19 +23971,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>182.181744890707</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>201.2094116703963</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.198821757605</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>40.33821936961412</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>421.6739988786979</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>62.55555096376486</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>145.3758766889663</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.0937685836068</v>
@@ -24384,7 +24384,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>114.8692533779067</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>7.298443621827175</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>26.28169773356328</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>88.66565849005825</v>
       </c>
       <c r="H28" t="n">
-        <v>95.88964603324575</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>120.3970271724593</v>
       </c>
       <c r="V29" t="n">
-        <v>59.94934866722809</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24748,7 +24748,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>49.97562838981399</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>118.4405618467342</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>73.57058162433586</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,10 +24976,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>281.2961784722522</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>51.02278573242248</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>93.63231361822235</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>288.4366795858612</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>139.840401551623</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25219,7 +25219,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>137.5181126888913</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>76.70400539372727</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>209.3750274596594</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>392.4996561024976</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>41.72279128668065</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>148.3543214983355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>375.6968898056355</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>265.8825315905893</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>139.1683390918422</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>100.5937471736738</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>347.7383351070654</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>60.03778590972617</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>90.59995326790121</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.141835304533</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>381236.3726221698</v>
+        <v>381236.3726221697</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>381236.3726221697</v>
+        <v>381236.3726221696</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>381236.3726221697</v>
+        <v>381236.3726221696</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>381236.3726221696</v>
+        <v>381236.3726221697</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>381236.3726221697</v>
+        <v>381236.3726221696</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>381236.3726221697</v>
+        <v>381236.3726221696</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>381236.3726221697</v>
+        <v>381236.3726221696</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>381236.3726221697</v>
+        <v>381236.3726221696</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>300946.1639116302</v>
       </c>
       <c r="D2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369847</v>
       </c>
       <c r="E2" t="n">
         <v>180892.20699594</v>
@@ -26328,7 +26328,7 @@
         <v>180892.20699594</v>
       </c>
       <c r="G2" t="n">
-        <v>180892.2069959399</v>
+        <v>180892.20699594</v>
       </c>
       <c r="H2" t="n">
         <v>180892.20699594</v>
@@ -26340,13 +26340,13 @@
         <v>180892.2069959399</v>
       </c>
       <c r="K2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="L2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="M2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="N2" t="n">
         <v>180892.2069959399</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730576</v>
+        <v>117708.4675730582</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180445</v>
+        <v>439858.2450180438</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310194</v>
+        <v>30139.06600310206</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597481</v>
+        <v>117374.5815597479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>270795.1440057437</v>
+        <v>270795.1440057436</v>
       </c>
       <c r="E4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="F4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="G4" t="n">
         <v>12054.8494407426</v>
       </c>
       <c r="H4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="I4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="J4" t="n">
         <v>12054.84944074259</v>
@@ -26447,10 +26447,10 @@
         <v>12054.84944074259</v>
       </c>
       <c r="L4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="M4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="N4" t="n">
         <v>12054.84944074259</v>
@@ -26475,34 +26475,34 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239234</v>
+        <v>42922.5622723924</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963781</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31412.15240020258</v>
+        <v>-31444.0591177042</v>
       </c>
       <c r="C6" t="n">
-        <v>-31412.15240020258</v>
+        <v>-31444.0591177042</v>
       </c>
       <c r="D6" t="n">
-        <v>-123141.4649142088</v>
+        <v>-123141.4649142095</v>
       </c>
       <c r="E6" t="n">
-        <v>-317071.9686724849</v>
+        <v>-317625.8491157062</v>
       </c>
       <c r="F6" t="n">
-        <v>122786.2763455595</v>
+        <v>122232.3959023376</v>
       </c>
       <c r="G6" t="n">
-        <v>122786.2763455595</v>
+        <v>122232.3959023376</v>
       </c>
       <c r="H6" t="n">
-        <v>122786.2763455595</v>
+        <v>122232.3959023376</v>
       </c>
       <c r="I6" t="n">
-        <v>122786.2763455595</v>
+        <v>122232.3959023376</v>
       </c>
       <c r="J6" t="n">
-        <v>122786.2763455595</v>
+        <v>122232.3959023376</v>
       </c>
       <c r="K6" t="n">
-        <v>122786.2763455596</v>
+        <v>122232.3959023376</v>
       </c>
       <c r="L6" t="n">
-        <v>92647.21034245759</v>
+        <v>92093.32989923556</v>
       </c>
       <c r="M6" t="n">
-        <v>5411.694785811473</v>
+        <v>4857.81434258964</v>
       </c>
       <c r="N6" t="n">
-        <v>122786.2763455595</v>
+        <v>122232.3959023375</v>
       </c>
       <c r="O6" t="n">
-        <v>122786.2763455595</v>
+        <v>122232.3959023376</v>
       </c>
       <c r="P6" t="n">
-        <v>122786.2763455595</v>
+        <v>122232.3959023376</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480453</v>
+        <v>94.250482174805</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
     </row>
     <row r="4">
@@ -26795,43 +26795,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480453</v>
+        <v>94.25048217480501</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184167</v>
+        <v>372.4514459184161</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194736</v>
+        <v>470.9979838194729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424608</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194736</v>
+        <v>470.9979838194729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194736</v>
+        <v>470.9979838194729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>317.2079436287586</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
-        <v>282.3584801445919</v>
+        <v>173.8180675986814</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796776</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
       </c>
       <c r="U8" t="n">
-        <v>256.599767943293</v>
+        <v>137.5158574008318</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27918,10 +27918,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>295.8671282440217</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>285.1193519208824</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -27943,10 +27943,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
         <v>39.36037526809191</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656965</v>
+        <v>59.05530966656963</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
@@ -27991,7 +27991,7 @@
         <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>194.5745071526445</v>
+        <v>78.0424322161594</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
@@ -28000,7 +28000,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>74.87448498080133</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.57295270216198</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -28028,10 +28028,10 @@
         <v>163.7654023385416</v>
       </c>
       <c r="H10" t="n">
-        <v>136.9920546719889</v>
+        <v>17.90814412952767</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742792</v>
+        <v>82.66219243742789</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>156.5554896577347</v>
+        <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>165.0020425058126</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>150.2222298271101</v>
       </c>
       <c r="X10" t="n">
-        <v>123.853926577461</v>
+        <v>151.6103572902859</v>
       </c>
       <c r="Y10" t="n">
-        <v>106.0615634365721</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529827</v>
+        <v>0.3788964107529846</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623986</v>
+        <v>3.880372866624005</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555438</v>
+        <v>14.60740387555446</v>
       </c>
       <c r="J8" t="n">
-        <v>32.158359242146</v>
+        <v>32.15835924214616</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931977</v>
+        <v>48.19704430932001</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990138</v>
+        <v>59.79269533990168</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462973</v>
+        <v>66.53089438463006</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168164</v>
+        <v>67.60743381168199</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725667</v>
+        <v>63.83978262725699</v>
       </c>
       <c r="P8" t="n">
-        <v>54.4857774867924</v>
+        <v>54.48577748679267</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.9165497767012</v>
+        <v>40.9165497767014</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196207</v>
+        <v>23.80085166196219</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033604</v>
+        <v>8.634101960033647</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071183</v>
+        <v>1.658619038071191</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023861</v>
+        <v>0.03031171286023877</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250513</v>
+        <v>0.2027274522250523</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857732</v>
+        <v>1.957920393857742</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888827</v>
+        <v>6.979870613888862</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780627</v>
+        <v>19.15329845780637</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688471</v>
+        <v>32.73603775688487</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211037</v>
+        <v>44.01764264211059</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526846</v>
+        <v>51.36651278526872</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286542</v>
+        <v>52.72603153286568</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619454</v>
+        <v>48.23401798619478</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006264</v>
+        <v>38.71205182006283</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542935</v>
+        <v>25.87798144542948</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779749</v>
+        <v>12.58688514779755</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531103</v>
+        <v>3.765573509531122</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457107</v>
+        <v>0.8171338973457147</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322706</v>
+        <v>0.01333733238322713</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889917</v>
+        <v>0.1699598858889926</v>
       </c>
       <c r="H10" t="n">
-        <v>1.51109789454031</v>
+        <v>1.511097894540317</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643499</v>
+        <v>5.111157295643524</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235172</v>
+        <v>12.01616393235178</v>
       </c>
       <c r="K10" t="n">
-        <v>19.7462485605574</v>
+        <v>19.7462485605575</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207792</v>
+        <v>25.26839976207805</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803531</v>
+        <v>26.64198465803545</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063091</v>
+        <v>26.00849781063104</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547314</v>
+        <v>24.02305732547325</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333769</v>
+        <v>20.55587565333779</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839548</v>
+        <v>14.23182280839555</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517755</v>
+        <v>7.642014505517793</v>
       </c>
       <c r="S10" t="n">
-        <v>2.96193728408361</v>
+        <v>2.961937284083624</v>
       </c>
       <c r="T10" t="n">
-        <v>0.72619223970751</v>
+        <v>0.7261922397075137</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308652</v>
+        <v>0.009270539230308699</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32642,28 +32642,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33116,28 +33116,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33353,28 +33353,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642299</v>
+        <v>14.19478239642306</v>
       </c>
       <c r="J8" t="n">
-        <v>32.158359242146</v>
+        <v>32.15835924214616</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931978</v>
+        <v>48.19704430932001</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990131</v>
+        <v>59.79269533990168</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462973</v>
+        <v>66.53089438463007</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168166</v>
+        <v>67.60743381168197</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725674</v>
+        <v>63.83978262725697</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679241</v>
+        <v>54.4857774867927</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670117</v>
+        <v>40.9165497767014</v>
       </c>
       <c r="R8" t="n">
-        <v>23.8008516619621</v>
+        <v>23.80085166196216</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888826</v>
+        <v>6.97987061388886</v>
       </c>
       <c r="J9" t="n">
-        <v>119.0839105424607</v>
+        <v>51.79011391164921</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688471</v>
+        <v>32.73603775688487</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211036</v>
+        <v>44.01764264211059</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526844</v>
+        <v>51.36651278526872</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286542</v>
+        <v>52.72603153286568</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619454</v>
+        <v>48.23401798619477</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006264</v>
+        <v>38.71205182006281</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542933</v>
+        <v>25.8779814454295</v>
       </c>
       <c r="R9" t="n">
-        <v>51.79011391164903</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143238</v>
+        <v>12.01616393235178</v>
       </c>
       <c r="K10" t="n">
-        <v>119.0839105424607</v>
+        <v>37.35941068517647</v>
       </c>
       <c r="L10" t="n">
-        <v>36.65654313298322</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803531</v>
+        <v>26.64198465803545</v>
       </c>
       <c r="N10" t="n">
-        <v>26.0084978106309</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547313</v>
+        <v>24.02305732547325</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333769</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424607</v>
+        <v>14.23182280839558</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,10 +35424,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>281.8524450409517</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>198.8376634256981</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263757</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712374</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35901,7 +35901,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>281.8524450409517</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -36129,16 +36129,16 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>138.4493337284798</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>294.2413903654062</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36381,7 +36381,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562351</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>270.2548228172323</v>
       </c>
       <c r="O25" t="n">
-        <v>296.1475206512696</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P25" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
         <v>117.855135640546</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562353</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36697,7 +36697,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>202.7781168554907</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954891</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320033</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>227.2024143463636</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,7 +36846,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184533</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36934,7 +36934,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>361.6495036861062</v>
       </c>
       <c r="L31" t="n">
-        <v>281.852445040951</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062841</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L34" t="n">
-        <v>170.8810658749154</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O34" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>294.2413903654051</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
@@ -37329,7 +37329,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L37" t="n">
-        <v>281.8524450409517</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>578.39473432732</v>
       </c>
       <c r="N37" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37557,7 +37557,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184533</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37642,10 +37642,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L40" t="n">
-        <v>281.852445040951</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619341</v>
+        <v>154.4864017760253</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
@@ -37721,10 +37721,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,10 +37794,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>529.7024996782375</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P43" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38040,7 +38040,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>296.14752065127</v>
+        <v>260.4234789221537</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
@@ -38198,7 +38198,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
